--- a/ListOfOrgans.xlsx
+++ b/ListOfOrgans.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\[XPatch] HD Icon Organs NPBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352FA174-3638-4CA7-898A-5EB47E461CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009AB43-ABBD-47C7-8C84-06624D455E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2040" windowWidth="22920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2100" windowWidth="22920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Humanlike" sheetId="1" r:id="rId1"/>
+    <sheet name="Animal" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="XItems">Лист2!$A$1:$A$189</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="646">
   <si>
     <t>ThingDef</t>
   </si>
@@ -1772,18 +1773,229 @@
   </si>
   <si>
     <t>XTorsoMovement</t>
+  </si>
+  <si>
+    <t>FSFAdvBionicBrain</t>
+  </si>
+  <si>
+    <t>FSFImplantBrainMeleeCombat</t>
+  </si>
+  <si>
+    <t>FSFImplantBrainRangedCombat</t>
+  </si>
+  <si>
+    <t>FSFImplantBrainAnimals</t>
+  </si>
+  <si>
+    <t>FSFImplantBrainMedical</t>
+  </si>
+  <si>
+    <t>FSFImplantBrainPlants</t>
+  </si>
+  <si>
+    <t>FSFImplantTorsoWorker</t>
+  </si>
+  <si>
+    <t>FSFImplantTorsoSpeed</t>
+  </si>
+  <si>
+    <t>FSFImplantTorsoPsychic</t>
+  </si>
+  <si>
+    <t>FSFImplantTorsoClimateControl</t>
+  </si>
+  <si>
+    <t>FSFImplantTorsoRespirator</t>
+  </si>
+  <si>
+    <t>FSFAdvBionicDrillArm</t>
+  </si>
+  <si>
+    <t>FSFAdvBionicFieldArm</t>
+  </si>
+  <si>
+    <t>FSFAdvBionicConstructionArm</t>
+  </si>
+  <si>
+    <t>FSFArchotechPowerCore</t>
+  </si>
+  <si>
+    <t>FSFArchotechSkinI</t>
+  </si>
+  <si>
+    <t>Respirator</t>
+  </si>
+  <si>
+    <t>AdvancedBionicFinger</t>
+  </si>
+  <si>
+    <t>AdvancedBionicToe</t>
+  </si>
+  <si>
+    <t>HeaterRib</t>
+  </si>
+  <si>
+    <t>CoolerRib</t>
+  </si>
+  <si>
+    <t>CoagulatorRib</t>
+  </si>
+  <si>
+    <t>SimpleSpine</t>
+  </si>
+  <si>
+    <t>ReplacementRadius</t>
+  </si>
+  <si>
+    <t>SimpleRib</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MuscleStimulatorArms</t>
+  </si>
+  <si>
+    <t>MuscleStimulatorLegs</t>
+  </si>
+  <si>
+    <t>EPOE_ScytherBlade</t>
+  </si>
+  <si>
+    <t>EPIA_ProtectiveExoskeleton</t>
+  </si>
+  <si>
+    <t>EPIA_AuxiliaryAI_Sharpshooter</t>
+  </si>
+  <si>
+    <t>EPIA_AuxiliaryAI_Commando</t>
+  </si>
+  <si>
+    <t>EPIA_AuxiliaryAI_Brawler</t>
+  </si>
+  <si>
+    <t>ProstheticTailAnimal</t>
+  </si>
+  <si>
+    <t>ProstheticTail</t>
+  </si>
+  <si>
+    <t>SimpleProstheticLegAnimal</t>
+  </si>
+  <si>
+    <t>SimpleProstheticArmAnimal</t>
+  </si>
+  <si>
+    <t>NoseAnimalSimple</t>
+  </si>
+  <si>
+    <t>JawAnimalSimple</t>
+  </si>
+  <si>
+    <t>EarAnimalSimple</t>
+  </si>
+  <si>
+    <t>SpineAnimalSimple</t>
+  </si>
+  <si>
+    <t>BionicLegAnimal</t>
+  </si>
+  <si>
+    <t>BionicArmAnimal</t>
+  </si>
+  <si>
+    <t>BionicEyeAnimal</t>
+  </si>
+  <si>
+    <t>JawAnimalBionic</t>
+  </si>
+  <si>
+    <t>EarAnimalBionic</t>
+  </si>
+  <si>
+    <t>SpineAnimalBionic</t>
+  </si>
+  <si>
+    <t>AnimalBrainStimulator</t>
+  </si>
+  <si>
+    <t>BionicAnimalHeart</t>
+  </si>
+  <si>
+    <t>BionicAnimalStomach</t>
+  </si>
+  <si>
+    <t>BionicAnimalLung</t>
+  </si>
+  <si>
+    <t>BionicAnimalLiver</t>
+  </si>
+  <si>
+    <t>BionicAnimalKidney</t>
+  </si>
+  <si>
+    <t>AnimalNose</t>
+  </si>
+  <si>
+    <t>AnimalSpine</t>
+  </si>
+  <si>
+    <t>AnimalEar</t>
+  </si>
+  <si>
+    <t>AnimalJaw</t>
+  </si>
+  <si>
+    <t>AnimalTail</t>
+  </si>
+  <si>
+    <t>AnimalArm</t>
+  </si>
+  <si>
+    <t>AnimalHeart</t>
+  </si>
+  <si>
+    <t>AnimalKidney</t>
+  </si>
+  <si>
+    <t>AnimalLiver</t>
+  </si>
+  <si>
+    <t>AnimalLung</t>
+  </si>
+  <si>
+    <t>AnimalStomach</t>
+  </si>
+  <si>
+    <t>AnimalEye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1826,7 +2038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1862,16 +2074,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,36 +2128,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2211,11 +2493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,10 +2519,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2430,10 +2712,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -2444,52 +2726,52 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>231</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>470</v>
       </c>
     </row>
@@ -2500,73 +2782,73 @@
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>281</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>411</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>414</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>225</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>412</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>500</v>
       </c>
     </row>
@@ -2577,7 +2859,7 @@
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2588,7 +2870,7 @@
       <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2599,7 +2881,7 @@
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2610,7 +2892,7 @@
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>483</v>
       </c>
     </row>
@@ -2621,7 +2903,7 @@
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2632,7 +2914,7 @@
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2643,7 +2925,7 @@
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2654,3925 +2936,4256 @@
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>413</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>415</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>232</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>410</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+    <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+    <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+    <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+    <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+    <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+    <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+    <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+    <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+    <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+    <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+    <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+    <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+    <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+    <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+    <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+    <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+    <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C108" s="19" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="10" t="s">
+    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="17"/>
-    </row>
-    <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+      <c r="C109" s="19"/>
+    </row>
+    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C110" s="19" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="10" t="s">
+    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18"/>
+      <c r="B111" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C108" s="17"/>
-    </row>
-    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="C111" s="19"/>
+    </row>
+    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C112" s="19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="10" t="s">
+    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+      <c r="C113" s="19"/>
+    </row>
+    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C114" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="10" t="s">
+    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="C115" s="19"/>
+    </row>
+    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C116" s="19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="10" t="s">
+    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="17"/>
-    </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C118" s="19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="10" t="s">
+    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="17"/>
-    </row>
-    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C120" s="19" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="10" t="s">
+    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="17"/>
-    </row>
-    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+    <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+    <row r="126" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+    <row r="127" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+    <row r="128" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+    <row r="129" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+    <row r="130" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+    <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C131" s="10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+    <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+    <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+    <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+    <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+    <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+    <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+    <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+    <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+    <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+    <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+    <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B142" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+    <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+    <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B144" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
+    <row r="145" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+    <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+    <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+    <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+    <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+    <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+    <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+    <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+    <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+    <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+    <row r="155" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+    <row r="156" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+    <row r="157" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="8"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B160" s="8"/>
-    </row>
-    <row r="161" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="B163" s="16"/>
+    </row>
+    <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B164" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="8"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B171" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+    <row r="172" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B172" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
+    <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B174" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+    <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
+    <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B176" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
+    <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B177" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+    <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+    <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B179" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
+    <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B180" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+    <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B181" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+    <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B182" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="10" t="s">
+    <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B183" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C183" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+    <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B184" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
+    <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B185" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
+    <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B186" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+    <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B187" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
+    <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B188" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+    <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B189" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+    <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B190" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
+    <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B191" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
+    <row r="192" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B192" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C192" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+    <row r="193" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B193" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C193" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
+    <row r="194" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B194" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C194" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
+    <row r="195" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B195" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C195" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+    <row r="196" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B196" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="s">
+    <row r="197" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B197" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C197" s="10" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
+    <row r="198" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B198" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C198" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="15" t="s">
+    <row r="199" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B199" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15" t="s">
+    <row r="200" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B200" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C200" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="15" t="s">
+    <row r="201" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B201" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="D201" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="15" t="s">
+    <row r="202" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B202" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C202" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D199" s="16" t="s">
+      <c r="D202" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
+    <row r="203" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B203" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D200" s="16" t="s">
+      <c r="D203" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="15" t="s">
+    <row r="204" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B204" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C204" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="15" t="s">
+    <row r="205" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B205" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C205" s="10" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
+    <row r="206" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B206" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C206" s="10" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
+    <row r="207" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B207" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C207" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
+    <row r="208" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B208" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C208" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+    <row r="209" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="B209" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
+    <row r="210" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B207" s="12" t="s">
+      <c r="B210" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C210" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="10" t="s">
+    <row r="211" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B211" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C211" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+    <row r="212" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B212" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="10" t="s">
+    <row r="213" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B213" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C213" s="10" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="10" t="s">
+    <row r="214" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B214" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C214" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+    <row r="215" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B215" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C215" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="10" t="s">
+    <row r="216" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B213" s="12" t="s">
+      <c r="B216" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C216" s="10" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="10" t="s">
+    <row r="217" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B217" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C217" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
+    <row r="218" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B218" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C218" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="10" t="s">
+    <row r="219" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B216" s="12" t="s">
+      <c r="B219" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C219" s="10" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="10" t="s">
+    <row r="220" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B220" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="C220" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
+    <row r="221" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B221" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C221" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="10" t="s">
+    <row r="222" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B222" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C222" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="10" t="s">
+    <row r="223" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B223" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C223" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+    <row r="224" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B224" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C224" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="10" t="s">
+    <row r="225" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B225" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C225" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="10" t="s">
+    <row r="226" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B226" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C226" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+    <row r="227" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B227" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C227" s="10" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
+    <row r="228" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="B228" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C228" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="10" t="s">
+    <row r="229" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B229" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C229" s="10" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+    <row r="230" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B227" s="12" t="s">
+      <c r="B230" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C230" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="10" t="s">
+    <row r="231" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B231" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C231" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="10" t="s">
+    <row r="232" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B229" s="12" t="s">
+      <c r="B232" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C232" s="10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="230" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+    <row r="233" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="B233" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C233" s="10" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="15" t="s">
+    <row r="234" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B234" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C234" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="15" t="s">
+    <row r="235" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="B235" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C232" s="11" t="s">
+      <c r="C235" s="10" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="15" t="s">
+    <row r="236" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B233" s="12" t="s">
+      <c r="B236" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C236" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="234" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
+    <row r="237" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B237" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C237" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="15" t="s">
+    <row r="238" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B238" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C238" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="15" t="s">
+    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B239" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C239" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
+    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B240" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C240" s="10" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="10" t="s">
+    <row r="241" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B238" s="12" t="s">
+      <c r="B241" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C241" s="10" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="10" t="s">
+    <row r="242" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B242" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C242" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="10" t="s">
+    <row r="243" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B243" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C243" s="10" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="10" t="s">
+    <row r="244" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="B244" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C244" s="10" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
+    <row r="245" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B245" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C245" s="10" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+    <row r="246" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B246" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="C246" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="244" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10" t="s">
+    <row r="247" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="B247" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C247" s="10" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="245" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10" t="s">
+    <row r="248" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="B248" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C248" s="10" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="246" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+    <row r="249" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B249" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C249" s="10" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
+    <row r="250" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B250" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C250" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="10" t="s">
+    <row r="251" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="B251" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C251" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
+    <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B252" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C252" s="10" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="10" t="s">
+    <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B250" s="12" t="s">
+      <c r="B253" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C253" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="10" t="s">
+    <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B251" s="12" t="s">
+      <c r="B254" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C254" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="10" t="s">
+    <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B252" s="12" t="s">
+      <c r="B255" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C255" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="10" t="s">
+    <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B253" s="12" t="s">
+      <c r="B256" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C256" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="10" t="s">
+    <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B257" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C257" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="10" t="s">
+    <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="B258" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C258" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
+    <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B259" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C259" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="10" t="s">
+    <row r="260" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B257" s="12" t="s">
+      <c r="B260" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C260" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
+    <row r="261" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B258" s="12" t="s">
+      <c r="B261" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C261" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="10" t="s">
+    <row r="262" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B259" s="12" t="s">
+      <c r="B262" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C262" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="15" t="s">
+    <row r="263" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="B263" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C263" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="15" t="s">
+    <row r="264" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B264" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C261" s="11" t="s">
+      <c r="C264" s="10" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
+    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="B265" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="C265" s="10" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="10" t="s">
+    <row r="266" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="12" t="s">
+      <c r="B266" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C263" s="11" t="s">
+      <c r="C266" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+    <row r="267" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B267" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="C267" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
+    <row r="268" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B268" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C265" s="11" t="s">
+      <c r="C268" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="15" t="s">
+    <row r="269" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B266" s="12" t="s">
+      <c r="B269" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C266" s="11" t="s">
+      <c r="C269" s="10" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
+    <row r="270" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B270" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="C270" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="10" t="s">
+    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B271" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C268" s="11" t="s">
+      <c r="C271" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="15" t="s">
+    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B269" s="12" t="s">
+      <c r="B272" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C269" s="11" t="s">
+      <c r="C272" s="10" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="15" t="s">
+    <row r="273" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B273" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C270" s="11" t="s">
+      <c r="C273" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="13" t="s">
+    <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B274" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C274" s="19" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
-      <c r="B272" s="10" t="s">
+    <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="18"/>
+      <c r="B275" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C272" s="17"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="7"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
+      <c r="C275" s="19"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+      <c r="B278" s="16"/>
+    </row>
+    <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B279" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C279" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="10" t="s">
+    <row r="280" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B280" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C280" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="10" t="s">
+    <row r="281" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B281" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C281" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="10" t="s">
+    <row r="282" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B279" s="12" t="s">
+      <c r="B283" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C283" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="10" t="s">
+    <row r="284" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B284" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C280" s="11" t="s">
+      <c r="C284" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
+    <row r="285" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B281" s="12" t="s">
+      <c r="B285" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C285" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="10" t="s">
+    <row r="286" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B282" s="12" t="s">
+      <c r="B286" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C286" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
+    <row r="287" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B287" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C283" s="11" t="s">
+      <c r="C287" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
+    <row r="288" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="B289" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C284" s="11" t="s">
+      <c r="C289" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
+    <row r="290" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B285" s="12" t="s">
+      <c r="B290" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C285" s="11" t="s">
+      <c r="C290" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
+    <row r="291" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B286" s="12" t="s">
+      <c r="B291" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C286" s="11" t="s">
+      <c r="C291" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="10" t="s">
+    <row r="292" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B287" s="12" t="s">
+      <c r="B292" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C287" s="11" t="s">
+      <c r="C292" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="10" t="s">
+    <row r="293" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B294" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C288" s="11" t="s">
+      <c r="C294" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="10" t="s">
+    <row r="295" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B289" s="12" t="s">
+      <c r="B296" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C289" s="11" t="s">
+      <c r="C296" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="10" t="s">
+    <row r="297" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="B297" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C290" s="11" t="s">
+      <c r="C297" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="10" t="s">
+    <row r="298" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B291" s="12" t="s">
+      <c r="B298" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C291" s="11" t="s">
+      <c r="C298" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="10" t="s">
+    <row r="299" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B292" s="12" t="s">
+      <c r="B302" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C292" s="11" t="s">
+      <c r="C302" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="10" t="s">
+    <row r="303" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="B303" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C293" s="11" t="s">
+      <c r="C303" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="10" t="s">
+    <row r="304" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B294" s="12" t="s">
+      <c r="B305" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C294" s="11" t="s">
+      <c r="C305" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="10" t="s">
+    <row r="306" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="B306" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C295" s="11" t="s">
+      <c r="C306" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="10" t="s">
+    <row r="307" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B307" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C296" s="11" t="s">
+      <c r="C307" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="10" t="s">
+    <row r="308" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="B308" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C297" s="11" t="s">
+      <c r="C308" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="10" t="s">
+    <row r="309" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B298" s="12" t="s">
+      <c r="B309" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C298" s="11" t="s">
+      <c r="C309" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="10" t="s">
+    <row r="310" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B299" s="12" t="s">
+      <c r="B310" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C299" s="11" t="s">
+      <c r="C310" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="10" t="s">
+    <row r="311" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B300" s="12" t="s">
+      <c r="B311" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C300" s="11" t="s">
+      <c r="C311" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="10" t="s">
+    <row r="312" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B312" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C301" s="11" t="s">
+      <c r="C312" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="10" t="s">
+    <row r="313" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B302" s="12" t="s">
+      <c r="B313" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C302" s="11" t="s">
+      <c r="C313" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="10" t="s">
+    <row r="314" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="12" t="s">
+      <c r="B314" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C303" s="11" t="s">
+      <c r="C314" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="10" t="s">
+    <row r="315" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="B315" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C304" s="11" t="s">
+      <c r="C315" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="10" t="s">
+    <row r="316" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B326" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B305" s="12" t="s">
+      <c r="B327" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C305" s="11" t="s">
+      <c r="C327" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
+    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="B328" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C306" s="11" t="s">
+      <c r="C328" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="10" t="s">
+    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="B329" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C307" s="11" t="s">
+      <c r="C329" s="10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="10" t="s">
+    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B330" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="C330" s="10" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
+    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B331" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C309" s="11" t="s">
+      <c r="C331" s="10" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
+    <row r="332" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B332" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C310" s="11" t="s">
+      <c r="C332" s="10" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
+    <row r="333" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B333" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C311" s="11" t="s">
+      <c r="C333" s="10" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+    <row r="334" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="B334" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C312" s="11" t="s">
+      <c r="C334" s="10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
+    <row r="335" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="B335" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C313" s="11" t="s">
+      <c r="C335" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="8" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="8"/>
-    </row>
-    <row r="317" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
+      <c r="B338" s="16"/>
+    </row>
+    <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B317" s="12" t="s">
+      <c r="B339" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C317" s="11" t="s">
+      <c r="C339" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="318" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
+    <row r="340" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="B340" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C318" s="11" t="s">
+      <c r="C340" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="10" t="s">
+    <row r="341" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="B341" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C319" s="11" t="s">
+      <c r="C341" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10" t="s">
+    <row r="342" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="B342" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C320" s="11" t="s">
+      <c r="C342" s="10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10" t="s">
+    <row r="343" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B321" s="12" t="s">
+      <c r="B343" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C321" s="11" t="s">
+      <c r="C343" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="10" t="s">
+    <row r="344" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B344" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C322" s="11" t="s">
+      <c r="C344" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
+    <row r="345" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B323" s="12" t="s">
+      <c r="B345" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C323" s="11" t="s">
+      <c r="C345" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
+    <row r="346" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B324" s="12" t="s">
+      <c r="B346" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C324" s="11" t="s">
+      <c r="C346" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="10" t="s">
+    <row r="347" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B325" s="12" t="s">
+      <c r="B347" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C325" s="11" t="s">
+      <c r="C347" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="10" t="s">
+    <row r="348" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B326" s="12" t="s">
+      <c r="B348" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C326" s="11" t="s">
+      <c r="C348" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
+    <row r="349" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B327" s="12" t="s">
+      <c r="B349" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C327" s="11" t="s">
+      <c r="C349" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+    <row r="350" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="B350" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C328" s="11" t="s">
+      <c r="C350" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
+    <row r="351" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="B351" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C329" s="11" t="s">
+      <c r="C351" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10" t="s">
+    <row r="352" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="B352" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C330" s="11" t="s">
+      <c r="C352" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10" t="s">
+    <row r="353" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="B353" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C331" s="11" t="s">
+      <c r="C353" s="10" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10" t="s">
+    <row r="354" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="B354" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C332" s="11" t="s">
+      <c r="C354" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="10" t="s">
+    <row r="355" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="B355" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C333" s="11" t="s">
+      <c r="C355" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
+    <row r="356" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B356" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C334" s="11" t="s">
+      <c r="C356" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
+    <row r="357" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="B357" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C335" s="11" t="s">
+      <c r="C357" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="10" t="s">
+    <row r="358" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="B358" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C336" s="11" t="s">
+      <c r="C358" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
+    <row r="359" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="B359" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C337" s="11" t="s">
+      <c r="C359" s="10" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="10" t="s">
+    <row r="360" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="B360" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C338" s="11" t="s">
+      <c r="C360" s="10" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="10" t="s">
+    <row r="361" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="B361" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C339" s="11" t="s">
+      <c r="C361" s="10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="10" t="s">
+    <row r="362" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="B362" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C340" s="11" t="s">
+      <c r="C362" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10" t="s">
+    <row r="363" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="B363" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C341" s="11" t="s">
+      <c r="C363" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="10" t="s">
+    <row r="364" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="B364" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C342" s="11" t="s">
+      <c r="C364" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="10" t="s">
+    <row r="365" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="B365" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C343" s="11" t="s">
+      <c r="C365" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="10" t="s">
+    <row r="366" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B366" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C344" s="11" t="s">
+      <c r="C366" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="10" t="s">
+    <row r="367" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B367" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C345" s="11" t="s">
+      <c r="C367" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="10" t="s">
+    <row r="368" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="B368" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C346" s="11" t="s">
+      <c r="C368" s="10" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="10" t="s">
+    <row r="369" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B369" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C347" s="11" t="s">
+      <c r="C369" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="10" t="s">
+    <row r="370" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="B370" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C348" s="11" t="s">
+      <c r="C370" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="10" t="s">
+    <row r="371" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="B371" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C349" s="11" t="s">
+      <c r="C371" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="10" t="s">
+    <row r="372" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="B372" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C350" s="11" t="s">
+      <c r="C372" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="351" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="10" t="s">
+    <row r="373" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B373" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C351" s="11" t="s">
+      <c r="C373" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="10" t="s">
+    <row r="374" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="B374" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C352" s="11" t="s">
+      <c r="C374" s="10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
+    <row r="375" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="B375" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C353" s="11" t="s">
+      <c r="C375" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="354" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
+    <row r="376" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="B376" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C354" s="11" t="s">
+      <c r="C376" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="10" t="s">
+    <row r="377" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="B377" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C355" s="11" t="s">
+      <c r="C377" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="356" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
+    <row r="378" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B356" s="12" t="s">
+      <c r="B378" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C356" s="11" t="s">
+      <c r="C378" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
+    <row r="379" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B357" s="12" t="s">
+      <c r="B379" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C357" s="11" t="s">
+      <c r="C379" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="10" t="s">
+    <row r="380" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B358" s="12" t="s">
+      <c r="B380" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C358" s="11" t="s">
+      <c r="C380" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="10" t="s">
+    <row r="381" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="12" t="s">
+      <c r="B381" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C359" s="11" t="s">
+      <c r="C381" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
+    <row r="382" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B360" s="12" t="s">
+      <c r="B382" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C360" s="11" t="s">
+      <c r="C382" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="10" t="s">
+    <row r="383" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B383" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B384" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B361" s="12" t="s">
+      <c r="B385" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C361" s="11" t="s">
+      <c r="C385" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="10" t="s">
+    <row r="386" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B362" s="12" t="s">
+      <c r="B386" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C362" s="11" t="s">
+      <c r="C386" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="10" t="s">
+    <row r="387" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B363" s="12" t="s">
+      <c r="B387" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C363" s="11" t="s">
+      <c r="C387" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="364" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
+    <row r="388" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B364" s="12" t="s">
+      <c r="B388" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C364" s="11" t="s">
+      <c r="C388" s="10" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="365" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
+    <row r="389" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B365" s="12" t="s">
+      <c r="B389" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C365" s="11" t="s">
+      <c r="C389" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="366" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
+    <row r="390" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B366" s="12" t="s">
+      <c r="B390" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C366" s="11" t="s">
+      <c r="C390" s="10" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="367" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
+    <row r="391" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B367" s="12" t="s">
+      <c r="B391" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C367" s="11" t="s">
+      <c r="C391" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="368" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
+    <row r="392" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B368" s="12" t="s">
+      <c r="B392" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C368" s="11" t="s">
+      <c r="C392" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
+    <row r="393" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B369" s="12" t="s">
+      <c r="B393" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C369" s="11" t="s">
+      <c r="C393" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="370" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
+    <row r="394" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B370" s="12" t="s">
+      <c r="B394" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C370" s="11" t="s">
+      <c r="C394" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="371" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
+    <row r="395" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B371" s="12" t="s">
+      <c r="B395" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C371" s="11" t="s">
+      <c r="C395" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="372" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10" t="s">
+    <row r="396" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B372" s="12" t="s">
+      <c r="B396" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C372" s="11" t="s">
+      <c r="C396" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="373" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="10" t="s">
+    <row r="397" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B373" s="12" t="s">
+      <c r="B397" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C373" s="11" t="s">
+      <c r="C397" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="374" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="10" t="s">
+    <row r="398" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B374" s="12" t="s">
+      <c r="B398" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C374" s="11" t="s">
+      <c r="C398" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="375" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="10" t="s">
+    <row r="399" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B375" s="12" t="s">
+      <c r="B399" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C375" s="11" t="s">
+      <c r="C399" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="376" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="10" t="s">
+    <row r="400" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B376" s="12" t="s">
+      <c r="B400" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C376" s="11" t="s">
+      <c r="C400" s="10" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="377" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="10" t="s">
+    <row r="401" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B377" s="12" t="s">
+      <c r="B401" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C377" s="11" t="s">
+      <c r="C401" s="10" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="378" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="10" t="s">
+    <row r="402" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B378" s="12" t="s">
+      <c r="B402" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C378" s="11" t="s">
+      <c r="C402" s="10" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="379" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="10" t="s">
+    <row r="403" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B379" s="12" t="s">
+      <c r="B403" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C379" s="11" t="s">
+      <c r="C403" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="380" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="10" t="s">
+    <row r="404" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B380" s="12" t="s">
+      <c r="B404" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C380" s="11" t="s">
+      <c r="C404" s="10" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="381" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10" t="s">
+    <row r="405" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B381" s="12" t="s">
+      <c r="B405" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C381" s="11" t="s">
+      <c r="C405" s="10" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="382" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="10" t="s">
+    <row r="406" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B382" s="12" t="s">
+      <c r="B406" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C382" s="11" t="s">
+      <c r="C406" s="10" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="10" t="s">
+    <row r="407" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B383" s="12" t="s">
+      <c r="B407" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C383" s="11" t="s">
+      <c r="C407" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="384" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="10" t="s">
+    <row r="408" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B384" s="12" t="s">
+      <c r="B408" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C384" s="11" t="s">
+      <c r="C408" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="10" t="s">
+    <row r="409" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B385" s="12" t="s">
+      <c r="B409" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C385" s="11" t="s">
+      <c r="C409" s="10" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="10" t="s">
+    <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B386" s="12" t="s">
+      <c r="B410" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C386" s="11" t="s">
+      <c r="C410" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="10" t="s">
+    <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="22"/>
+      <c r="B411" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="C411" s="25"/>
+    </row>
+    <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="23"/>
+      <c r="B412" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C412" s="26"/>
+    </row>
+    <row r="413" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B387" s="12" t="s">
+      <c r="B413" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C387" s="10" t="s">
+      <c r="C413" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="10" t="s">
+    <row r="414" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B388" s="12" t="s">
+      <c r="B414" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C388" s="10" t="s">
+      <c r="C414" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
+    <row r="415" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B389" s="12" t="s">
+      <c r="B415" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C389" s="10" t="s">
+      <c r="C415" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10" t="s">
+    <row r="416" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B390" s="12" t="s">
+      <c r="B416" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C390" s="10" t="s">
+      <c r="C416" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10" t="s">
+    <row r="417" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B391" s="12" t="s">
+      <c r="B417" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C391" s="10" t="s">
+      <c r="C417" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="10" t="s">
+    <row r="418" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B392" s="12" t="s">
+      <c r="B418" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C392" s="11" t="s">
+      <c r="C418" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+    <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="B422" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B395" s="8"/>
-    </row>
-    <row r="396" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="10" t="s">
+      <c r="B427" s="16"/>
+    </row>
+    <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B396" s="12" t="s">
+      <c r="B428" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C396" s="11" t="s">
+      <c r="C428" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="10" t="s">
+    <row r="429" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B397" s="12" t="s">
+      <c r="B429" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C397" s="11" t="s">
+      <c r="C429" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="10" t="s">
+    <row r="430" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B398" s="12" t="s">
+      <c r="B430" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C398" s="11" t="s">
+      <c r="C430" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="10" t="s">
+    <row r="431" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B399" s="12" t="s">
+      <c r="B431" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C399" s="11" t="s">
+      <c r="C431" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="10" t="s">
+    <row r="432" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B400" s="12" t="s">
+      <c r="B432" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C400" s="11" t="s">
+      <c r="C432" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="10" t="s">
+    <row r="433" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B401" s="12" t="s">
+      <c r="B433" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C401" s="11" t="s">
+      <c r="C433" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="10" t="s">
+    <row r="434" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B402" s="12" t="s">
+      <c r="B434" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C402" s="11" t="s">
+      <c r="C434" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="10" t="s">
+    <row r="435" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B403" s="12" t="s">
+      <c r="B435" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C403" s="11" t="s">
+      <c r="C435" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="10" t="s">
+    <row r="436" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B404" s="12" t="s">
+      <c r="B436" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C404" s="11" t="s">
+      <c r="C436" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="10" t="s">
+    <row r="437" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B405" s="12" t="s">
+      <c r="B437" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C405" s="11" t="s">
+      <c r="C437" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="10" t="s">
+    <row r="438" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="12" t="s">
+      <c r="B438" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C406" s="11" t="s">
+      <c r="C438" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="10" t="s">
+    <row r="439" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B407" s="12" t="s">
+      <c r="B439" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C407" s="11" t="s">
+      <c r="C439" s="10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="10" t="s">
+    <row r="440" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B408" s="12" t="s">
+      <c r="B440" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C408" s="11" t="s">
+      <c r="C440" s="10" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="10" t="s">
+    <row r="441" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B409" s="12" t="s">
+      <c r="B441" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C409" s="11" t="s">
+      <c r="C441" s="10" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="10" t="s">
+    <row r="442" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B410" s="12" t="s">
+      <c r="B442" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C410" s="11" t="s">
+      <c r="C442" s="10" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="10" t="s">
+    <row r="443" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="12" t="s">
+      <c r="B443" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="11" t="s">
+      <c r="C443" s="10" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="10" t="s">
+    <row r="444" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B412" s="12" t="s">
+      <c r="B444" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C412" s="11" t="s">
+      <c r="C444" s="10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="8" t="s">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B415" s="8"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="9"/>
-      <c r="B416" s="9"/>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="9"/>
-      <c r="B417" s="9"/>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="8" t="s">
+      <c r="B447" s="16"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B418" s="8"/>
+      <c r="B450" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:C154">
-    <sortCondition ref="A396"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D83">
+    <sortCondition ref="A83"/>
   </sortState>
-  <mergeCells count="30">
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A418:B418"/>
+  <mergeCells count="32">
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A447:B447"/>
     <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A410:A412"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A163:B163"/>
     <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="A274:A275"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6580,11 +7193,462 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFABC6-BD4F-4FD9-AF3E-1DF7257AA5B2}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="16"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="16"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="16"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:C46">
+    <sortCondition ref="A46"/>
+  </sortState>
+  <mergeCells count="14">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
   <dimension ref="A1:A189"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ListOfOrgans.xlsx
+++ b/ListOfOrgans.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\[XPatch] HD Icon Organs NPBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009AB43-ABBD-47C7-8C84-06624D455E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427F087E-BEEC-445D-A673-F31CE223AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2100" windowWidth="22920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22920" windowHeight="13545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humanlike" sheetId="1" r:id="rId1"/>
     <sheet name="Animal" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Cybertech" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="XItems">Лист2!$A$1:$A$189</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="745">
   <si>
     <t>ThingDef</t>
   </si>
@@ -1968,6 +1969,303 @@
   </si>
   <si>
     <t>AnimalEye</t>
+  </si>
+  <si>
+    <t>ANN_Zoom</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Zoom</t>
+  </si>
+  <si>
+    <t>ANN_BlackPearl</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_BlackPearl</t>
+  </si>
+  <si>
+    <t>ANN_IndependentEye</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_IndependentEye</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_HoverFeet</t>
+  </si>
+  <si>
+    <t>ANN_Greenthumb</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Greenthumb</t>
+  </si>
+  <si>
+    <t>ANN_CompressionJaw</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_CompressionJaw</t>
+  </si>
+  <si>
+    <t>ANN_CompressionStomach</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_CompressionStomach</t>
+  </si>
+  <si>
+    <t>ANN_EnergeticLung</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_EnergeticLung</t>
+  </si>
+  <si>
+    <t>ANN_EnergeticKidney</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_EnergeticKidney</t>
+  </si>
+  <si>
+    <t>ANN_EnergyCore</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_EnergyCore</t>
+  </si>
+  <si>
+    <t>ANN_EnergyLink</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_EnergyLink</t>
+  </si>
+  <si>
+    <t>ANN_EnergyFist</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_EnergyFist</t>
+  </si>
+  <si>
+    <t>ANN_OuterBlade</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_OuterBlade</t>
+  </si>
+  <si>
+    <t>ANN_PowerArms</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_PowerArms</t>
+  </si>
+  <si>
+    <t>ANN_BerserkerChip</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_BerserkerChip</t>
+  </si>
+  <si>
+    <t>ANN_Mindtwist</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Mindtwist</t>
+  </si>
+  <si>
+    <t>ANN_Autonomicviruskiller</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Autonomicviruskiller</t>
+  </si>
+  <si>
+    <t>ANN_MuseChip</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_MuseChip</t>
+  </si>
+  <si>
+    <t>ANN_NeuroEnhancer</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_NeuroEnhancer</t>
+  </si>
+  <si>
+    <t>ANN_FlashLight</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_FlashLight</t>
+  </si>
+  <si>
+    <t>ANN_LaserDetection</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_LaserDetection</t>
+  </si>
+  <si>
+    <t>ANN_SensoricEarside</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_SensoricEarside</t>
+  </si>
+  <si>
+    <t>ANN_CombatAI</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_CombatAI</t>
+  </si>
+  <si>
+    <t>ANN_CyclopsVisor</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_CyclopsVisor</t>
+  </si>
+  <si>
+    <t>ANN_Shadowrunner</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Shadowrunner</t>
+  </si>
+  <si>
+    <t>ANN_Musclewire</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Musclewire</t>
+  </si>
+  <si>
+    <t>ANN_Dermalplating</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Dermalplating</t>
+  </si>
+  <si>
+    <t>ANN_Exoskeleton</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_ExoskeletonArmor</t>
+  </si>
+  <si>
+    <t>ANN_Lionheart</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Lionheart</t>
+  </si>
+  <si>
+    <t>ANN_Aurum</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Aurum</t>
+  </si>
+  <si>
+    <t>ANN_AureanCornea</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_AureanCornea</t>
+  </si>
+  <si>
+    <t>ANN_Synchronizer</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_Synchronizer</t>
+  </si>
+  <si>
+    <t>ANN_ElasticAchilles</t>
+  </si>
+  <si>
+    <t>Trunken_hediff_ElasticAchilles</t>
+  </si>
+  <si>
+    <t>CyberTechCyclopsVisor</t>
+  </si>
+  <si>
+    <t>CyberTechLionheart</t>
+  </si>
+  <si>
+    <t>CyberTechAurum</t>
+  </si>
+  <si>
+    <t>CyberTechBlackPearl</t>
+  </si>
+  <si>
+    <t>CyberTechHoverFeet</t>
+  </si>
+  <si>
+    <t>CyberTechCompressionStomach</t>
+  </si>
+  <si>
+    <t>CyberTechEnergeticLung</t>
+  </si>
+  <si>
+    <t>CyberTechEnergyCore</t>
+  </si>
+  <si>
+    <t>CyberTechZoom</t>
+  </si>
+  <si>
+    <t>CyberTechIndependentEye</t>
+  </si>
+  <si>
+    <t>CyberTechGreenthumb</t>
+  </si>
+  <si>
+    <t>CyberTechEnergyFist</t>
+  </si>
+  <si>
+    <t>CyberTechBerserkerChip</t>
+  </si>
+  <si>
+    <t>CyberTechMindtwist</t>
+  </si>
+  <si>
+    <t>CyberTechAutonomicviruskiller</t>
+  </si>
+  <si>
+    <t>CyberTechNeuroEnhancer</t>
+  </si>
+  <si>
+    <t>CyberTechSensoricEarside</t>
+  </si>
+  <si>
+    <t>CyberTechMusclewire</t>
+  </si>
+  <si>
+    <t>CyberTechAureanCornea</t>
+  </si>
+  <si>
+    <t>CyberTechSynchronizer</t>
+  </si>
+  <si>
+    <t>CyberTechElasticAchilles</t>
+  </si>
+  <si>
+    <t>CyberTechExoskeletonArmor</t>
+  </si>
+  <si>
+    <t>CyberTechCompressionJaw</t>
+  </si>
+  <si>
+    <t>CyberTechEnergeticKidney</t>
+  </si>
+  <si>
+    <t>CyberTechEnergyLink</t>
+  </si>
+  <si>
+    <t>CyberTechOuterBlade</t>
+  </si>
+  <si>
+    <t>CyberTechPowerArms</t>
+  </si>
+  <si>
+    <t>CyberTechMuseChip</t>
+  </si>
+  <si>
+    <t>CyberTechFlashLight</t>
+  </si>
+  <si>
+    <t>CyberTechLaserDetection</t>
+  </si>
+  <si>
+    <t>CyberTechCombatAI</t>
+  </si>
+  <si>
+    <t>CyberTechShadowrunner</t>
+  </si>
+  <si>
+    <t>CyberTechDermalplating</t>
+  </si>
+  <si>
+    <t>ANN_HoverFeet</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2157,6 +2455,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2166,8 +2473,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2185,12 +2492,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2495,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
@@ -2519,10 +2820,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2712,10 +3013,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -2726,10 +3027,10 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="23"/>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3018,7 +3319,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="17" t="s">
         <v>604</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3205,7 +3506,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="17" t="s">
         <v>605</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3216,7 +3517,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="17" t="s">
         <v>603</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -3370,10 +3671,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="23"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -3386,10 +3687,10 @@
       <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="16"/>
+      <c r="B89" s="23"/>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
@@ -3590,130 +3891,130 @@
       </c>
     </row>
     <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="22" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="19"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="20" t="s">
         <v>133</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="22" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="19"/>
+      <c r="C111" s="22"/>
     </row>
     <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="22" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="19"/>
+      <c r="C113" s="22"/>
     </row>
     <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="20" t="s">
         <v>139</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="22" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="19"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="22" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="19"/>
+      <c r="C117" s="22"/>
     </row>
     <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="22" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C119" s="19"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="22" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="19"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
@@ -4120,10 +4421,10 @@
       <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="16"/>
+      <c r="B160" s="23"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
@@ -4136,10 +4437,10 @@
       <c r="C162" s="8"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="16"/>
+      <c r="B163" s="23"/>
     </row>
     <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
@@ -4161,10 +4462,10 @@
       <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="16"/>
+      <c r="B167" s="23"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
@@ -4177,10 +4478,10 @@
       <c r="C169" s="8"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="16"/>
+      <c r="B170" s="23"/>
     </row>
     <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
@@ -5325,22 +5626,22 @@
       </c>
     </row>
     <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="17" t="s">
+      <c r="A274" s="20" t="s">
         <v>397</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C274" s="19" t="s">
+      <c r="C274" s="22" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="18"/>
+      <c r="A275" s="21"/>
       <c r="B275" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C275" s="19"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
@@ -5351,10 +5652,10 @@
       <c r="B277" s="2"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="16" t="s">
+      <c r="A278" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B278" s="16"/>
+      <c r="B278" s="23"/>
     </row>
     <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
@@ -5390,10 +5691,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="20" t="s">
+      <c r="A282" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="B282" s="20" t="s">
+      <c r="B282" s="17" t="s">
         <v>598</v>
       </c>
       <c r="C282" s="10" t="s">
@@ -5456,10 +5757,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="20" t="s">
+      <c r="A288" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="B288" s="20" t="s">
+      <c r="B288" s="17" t="s">
         <v>599</v>
       </c>
       <c r="C288" s="10" t="s">
@@ -5511,10 +5812,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="20" t="s">
+      <c r="A293" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="17" t="s">
         <v>602</v>
       </c>
       <c r="C293" s="10" t="s">
@@ -5533,10 +5834,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="20" t="s">
+      <c r="A295" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="17" t="s">
         <v>601</v>
       </c>
       <c r="C295" s="10" t="s">
@@ -5874,10 +6175,10 @@
       </c>
     </row>
     <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="20" t="s">
+      <c r="A326" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B326" s="20" t="s">
+      <c r="B326" s="17" t="s">
         <v>600</v>
       </c>
       <c r="C326" s="10" t="s">
@@ -5988,10 +6289,10 @@
       <c r="B337" s="2"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="16" t="s">
+      <c r="A338" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B338" s="16"/>
+      <c r="B338" s="23"/>
     </row>
     <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
@@ -6775,29 +7076,29 @@
       </c>
     </row>
     <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="24" t="s">
         <v>268</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C410" s="24" t="s">
+      <c r="C410" s="27" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="22"/>
-      <c r="B411" s="20" t="s">
+      <c r="A411" s="25"/>
+      <c r="B411" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C411" s="25"/>
+      <c r="C411" s="28"/>
     </row>
     <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="23"/>
-      <c r="B412" s="20" t="s">
+      <c r="A412" s="26"/>
+      <c r="B412" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="C412" s="26"/>
+      <c r="C412" s="29"/>
     </row>
     <row r="413" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
@@ -6866,10 +7167,10 @@
       </c>
     </row>
     <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="20" t="s">
+      <c r="A419" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="B419" s="20" t="s">
+      <c r="B419" s="17" t="s">
         <v>609</v>
       </c>
       <c r="C419" s="10" t="s">
@@ -6877,10 +7178,10 @@
       </c>
     </row>
     <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="20" t="s">
+      <c r="A420" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="B420" s="20" t="s">
+      <c r="B420" s="17" t="s">
         <v>610</v>
       </c>
       <c r="C420" s="10" t="s">
@@ -6888,10 +7189,10 @@
       </c>
     </row>
     <row r="421" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="20" t="s">
+      <c r="A421" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="B421" s="20" t="s">
+      <c r="B421" s="17" t="s">
         <v>611</v>
       </c>
       <c r="C421" s="10" t="s">
@@ -6899,10 +7200,10 @@
       </c>
     </row>
     <row r="422" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="20" t="s">
+      <c r="A422" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="B422" s="20" t="s">
+      <c r="B422" s="17" t="s">
         <v>612</v>
       </c>
       <c r="C422" s="10" t="s">
@@ -6910,10 +7211,10 @@
       </c>
     </row>
     <row r="423" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="20" t="s">
+      <c r="A423" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="B423" s="20" t="s">
+      <c r="B423" s="17" t="s">
         <v>613</v>
       </c>
       <c r="C423" s="10" t="s">
@@ -6929,10 +7230,10 @@
       <c r="B426" s="2"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="16" t="s">
+      <c r="A427" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B427" s="16"/>
+      <c r="B427" s="23"/>
     </row>
     <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
@@ -7130,10 +7431,10 @@
       <c r="B446" s="2"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="16" t="s">
+      <c r="A447" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B447" s="16"/>
+      <c r="B447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
@@ -7144,22 +7445,29 @@
       <c r="B449" s="8"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="16" t="s">
+      <c r="A450" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B450" s="16"/>
+      <c r="B450" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D83">
     <sortCondition ref="A83"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="A274:A275"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="A116:A117"/>
@@ -7173,19 +7481,12 @@
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="A410:A412"/>
     <mergeCell ref="C410:C412"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A427:B427"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7220,16 +7521,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -7240,16 +7541,16 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>620</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -7257,10 +7558,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>619</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -7268,10 +7569,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>618</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7279,10 +7580,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>615</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -7290,10 +7591,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>617</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -7301,10 +7602,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>616</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -7312,10 +7613,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>621</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -7323,22 +7624,22 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -7351,10 +7652,10 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7365,10 +7666,10 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="23"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7381,10 +7682,10 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -7395,10 +7696,10 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -7411,27 +7712,27 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>629</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -7439,10 +7740,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>633</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -7450,10 +7751,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="17" t="s">
         <v>632</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -7461,10 +7762,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="17" t="s">
         <v>631</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -7472,10 +7773,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="17" t="s">
         <v>630</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -7483,10 +7784,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>623</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -7494,10 +7795,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="17" t="s">
         <v>624</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -7505,10 +7806,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>622</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -7516,10 +7817,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>626</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -7527,10 +7828,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>625</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -7538,10 +7839,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="17" t="s">
         <v>627</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -7561,20 +7862,20 @@
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="23"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -7585,10 +7886,10 @@
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="23"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -7599,10 +7900,10 @@
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="23"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -7613,16 +7914,23 @@
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:C46">
     <sortCondition ref="A46"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A63:B63"/>
@@ -7630,13 +7938,6 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7644,6 +7945,640 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CA5C9-9459-4AA8-8EF9-86DF842CA153}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="23"/>
+    </row>
+    <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="23"/>
+    </row>
+    <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="23"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C64">
+    <sortCondition ref="A32"/>
+  </sortState>
+  <mergeCells count="14">
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
   <dimension ref="A1:A189"/>
   <sheetViews>

--- a/ListOfOrgans.xlsx
+++ b/ListOfOrgans.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\[XPatch] HD Icon Organs NPBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\[XPatch] HD Icons Organs NPBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427F087E-BEEC-445D-A673-F31CE223AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7BDD5-D942-4760-A146-30F9D5A235ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="22920" windowHeight="13545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3105" windowWidth="24165" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humanlike" sheetId="1" r:id="rId1"/>
     <sheet name="Animal" sheetId="3" r:id="rId2"/>
-    <sheet name="Cybertech" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Cybertech" sheetId="4" r:id="rId4"/>
+    <sheet name="CyberFauna" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="XItems">Лист2!$A$1:$A$189</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="809">
   <si>
     <t>ThingDef</t>
   </si>
@@ -2266,18 +2267,226 @@
   </si>
   <si>
     <t>ANN_HoverFeet</t>
+  </si>
+  <si>
+    <t>CFSimpleAniPaw</t>
+  </si>
+  <si>
+    <t>Prosthetic animal leg</t>
+  </si>
+  <si>
+    <t>CFSimpleAniSpine</t>
+  </si>
+  <si>
+    <t>Prosthetic animal spine</t>
+  </si>
+  <si>
+    <t>CFSimpleAniEye</t>
+  </si>
+  <si>
+    <t>Prosthetic animal eye</t>
+  </si>
+  <si>
+    <t>CFSimpleAniJaw</t>
+  </si>
+  <si>
+    <t>Prosthetic animal jaw</t>
+  </si>
+  <si>
+    <t>CFBionicAniPaw</t>
+  </si>
+  <si>
+    <t>CFBionicAniSpine</t>
+  </si>
+  <si>
+    <t>CFBionicAniEye</t>
+  </si>
+  <si>
+    <t>CFBionicAniJaw</t>
+  </si>
+  <si>
+    <t>CFBionicAniChip</t>
+  </si>
+  <si>
+    <t>CFBionicAniHeart</t>
+  </si>
+  <si>
+    <t>CFBionicAniLung</t>
+  </si>
+  <si>
+    <t>CFBionicAniKidney</t>
+  </si>
+  <si>
+    <t>CFBionicAniLiver</t>
+  </si>
+  <si>
+    <t>CFBionicAniStomach</t>
+  </si>
+  <si>
+    <t>CFArchoAniPaw</t>
+  </si>
+  <si>
+    <t>CFArchoAniSpine</t>
+  </si>
+  <si>
+    <t>CFArchoAniEye</t>
+  </si>
+  <si>
+    <t>CFArchoAniJaw</t>
+  </si>
+  <si>
+    <t>CFArchoAniChip</t>
+  </si>
+  <si>
+    <t>CFBattleAniPaw</t>
+  </si>
+  <si>
+    <t>CFBattleAniBody</t>
+  </si>
+  <si>
+    <t>CFBattleAniHead</t>
+  </si>
+  <si>
+    <t>CFBattleAniNeck</t>
+  </si>
+  <si>
+    <t>CFSimpleAniPawHed</t>
+  </si>
+  <si>
+    <t>CFSimpleAniSpineHed</t>
+  </si>
+  <si>
+    <t>CFSimpleAniEyeHed</t>
+  </si>
+  <si>
+    <t>CFSimpleAniJawHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniPawHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniSpineHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniEyeHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniJawHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniChipHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniHeartHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniLungHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniKidneyHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniLiverHed</t>
+  </si>
+  <si>
+    <t>CFBionicAniStomachHed</t>
+  </si>
+  <si>
+    <t>CFArchoAniPawHed</t>
+  </si>
+  <si>
+    <t>CFArchoAniSpineHed</t>
+  </si>
+  <si>
+    <t>CFArchoAniEyeHed</t>
+  </si>
+  <si>
+    <t>CFArchoAniJawHed</t>
+  </si>
+  <si>
+    <t>CFArchoAniChipHed</t>
+  </si>
+  <si>
+    <t>CFBattleAniPawHed</t>
+  </si>
+  <si>
+    <t>CFBattleAniBodyHed</t>
+  </si>
+  <si>
+    <t>CFBattleAniHeadHed</t>
+  </si>
+  <si>
+    <t>CFBattleAniNeckHed</t>
+  </si>
+  <si>
+    <t>cfBattleAniPaw</t>
+  </si>
+  <si>
+    <t>cfBattleAniBody</t>
+  </si>
+  <si>
+    <t>cfBattleAniHead</t>
+  </si>
+  <si>
+    <t>cfBattleAniNeck</t>
+  </si>
+  <si>
+    <t>cfAniPaw</t>
+  </si>
+  <si>
+    <t>cfAniSpine</t>
+  </si>
+  <si>
+    <t>cfAniEye</t>
+  </si>
+  <si>
+    <t>cfAniJaw</t>
+  </si>
+  <si>
+    <t>cfAniChip</t>
+  </si>
+  <si>
+    <t>cfAniHeart</t>
+  </si>
+  <si>
+    <t>cfAniLung</t>
+  </si>
+  <si>
+    <t>cfAniKidney</t>
+  </si>
+  <si>
+    <t>cfAniLiver</t>
+  </si>
+  <si>
+    <t>cfAniStomach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2336,7 +2545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2409,16 +2618,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2426,63 +2648,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,6 +2722,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2796,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D450"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
@@ -2820,10 +3095,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3013,10 +3288,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -3027,10 +3302,10 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3671,10 +3946,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -3687,10 +3962,10 @@
       <c r="C88" s="8"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="23"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
@@ -3891,130 +4166,130 @@
       </c>
     </row>
     <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="25" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="22"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="25" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="22"/>
+      <c r="C111" s="25"/>
     </row>
     <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="25" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="22"/>
+      <c r="C113" s="25"/>
     </row>
     <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="25" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="22"/>
+      <c r="C115" s="25"/>
     </row>
     <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="25" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="22"/>
+      <c r="C117" s="25"/>
     </row>
     <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="25" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C119" s="22"/>
+      <c r="C119" s="25"/>
     </row>
     <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="23" t="s">
         <v>148</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="25" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="22"/>
+      <c r="C121" s="25"/>
     </row>
     <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
@@ -4421,10 +4696,10 @@
       <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="23"/>
+      <c r="B160" s="26"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
@@ -4437,10 +4712,10 @@
       <c r="C162" s="8"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="23"/>
+      <c r="B163" s="26"/>
     </row>
     <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
@@ -4462,10 +4737,10 @@
       <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="23"/>
+      <c r="B167" s="26"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
@@ -4478,10 +4753,10 @@
       <c r="C169" s="8"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="23"/>
+      <c r="B170" s="26"/>
     </row>
     <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
@@ -5626,22 +5901,22 @@
       </c>
     </row>
     <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="20" t="s">
+      <c r="A274" s="23" t="s">
         <v>397</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C274" s="22" t="s">
+      <c r="C274" s="25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="21"/>
+      <c r="A275" s="24"/>
       <c r="B275" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C275" s="22"/>
+      <c r="C275" s="25"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
@@ -5652,10 +5927,10 @@
       <c r="B277" s="2"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="23" t="s">
+      <c r="A278" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B278" s="23"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
@@ -6289,10 +6564,10 @@
       <c r="B337" s="2"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="23" t="s">
+      <c r="A338" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B338" s="23"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
@@ -7076,29 +7351,29 @@
       </c>
     </row>
     <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="24" t="s">
+      <c r="A410" s="27" t="s">
         <v>268</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C410" s="27" t="s">
+      <c r="C410" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="25"/>
+      <c r="A411" s="28"/>
       <c r="B411" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C411" s="28"/>
+      <c r="C411" s="31"/>
     </row>
     <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="26"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="C412" s="29"/>
+      <c r="C412" s="32"/>
     </row>
     <row r="413" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
@@ -7230,10 +7505,10 @@
       <c r="B426" s="2"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="23" t="s">
+      <c r="A427" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B427" s="23"/>
+      <c r="B427" s="26"/>
     </row>
     <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
@@ -7431,10 +7706,10 @@
       <c r="B446" s="2"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="23" t="s">
+      <c r="A447" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B447" s="23"/>
+      <c r="B447" s="26"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
@@ -7445,10 +7720,10 @@
       <c r="B449" s="8"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="23" t="s">
+      <c r="A450" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B450" s="23"/>
+      <c r="B450" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D83">
@@ -7495,11 +7770,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CFABC6-BD4F-4FD9-AF3E-1DF7257AA5B2}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7509,7 +7784,7 @@
     <col min="3" max="3" width="27.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7520,33 +7795,33 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B2" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>620</v>
       </c>
@@ -7557,7 +7832,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>619</v>
       </c>
@@ -7568,7 +7843,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>618</v>
       </c>
@@ -7579,7 +7854,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>614</v>
       </c>
@@ -7590,7 +7865,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>617</v>
       </c>
@@ -7601,7 +7876,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>616</v>
       </c>
@@ -7612,7 +7887,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>621</v>
       </c>
@@ -7623,101 +7898,131 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>628</v>
       </c>
@@ -7728,7 +8033,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>629</v>
       </c>
@@ -7739,7 +8044,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>633</v>
       </c>
@@ -7750,7 +8055,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>632</v>
       </c>
@@ -7761,7 +8066,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>631</v>
       </c>
@@ -7772,7 +8077,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>630</v>
       </c>
@@ -7783,7 +8088,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>623</v>
       </c>
@@ -7794,7 +8099,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>624</v>
       </c>
@@ -7805,7 +8110,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>622</v>
       </c>
@@ -7816,7 +8121,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>626</v>
       </c>
@@ -7827,7 +8132,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>625</v>
       </c>
@@ -7838,7 +8143,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>627</v>
       </c>
@@ -7849,95 +8154,332 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>754</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+    </row>
+    <row r="53" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="23"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D55" s="44"/>
+    </row>
+    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="46"/>
+    </row>
+    <row r="61" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="46"/>
+    </row>
+    <row r="62" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="23"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="46"/>
+    </row>
+    <row r="69" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="46"/>
+    </row>
+    <row r="70" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="23"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>791</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>793</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>794</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="46"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="46"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="46"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="23"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="B79" s="50"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B82" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:C46">
     <sortCondition ref="A46"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7945,11 +8487,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
+  <dimension ref="A1:A203"/>
+  <sheetViews>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CA5C9-9459-4AA8-8EF9-86DF842CA153}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -7973,16 +9548,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -7993,10 +9568,10 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -8011,10 +9586,10 @@
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -8027,10 +9602,10 @@
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -8041,10 +9616,10 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -8057,10 +9632,10 @@
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -8071,10 +9646,10 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -8087,10 +9662,10 @@
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -8105,10 +9680,10 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -8506,10 +10081,10 @@
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -8520,10 +10095,10 @@
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -8534,10 +10109,10 @@
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -8548,10 +10123,10 @@
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C64">
@@ -8578,965 +10153,533 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
-  <dimension ref="A1:A189"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FA1C58-8C4D-4B21-AD5C-08A36B6CC2AD}">
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>580</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>753</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>776</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>777</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>757</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="35"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="35"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="35"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="35"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>787</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="35"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="35"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="35"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="35"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="35"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="37"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="37"/>
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="E72" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A61:B61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ListOfOrgans.xlsx
+++ b/ListOfOrgans.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\[XPatch] HD Icons Organs NPBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7BDD5-D942-4760-A146-30F9D5A235ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE51E89-1B87-45EB-9843-B2541DF90AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3105" windowWidth="24165" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="4290" windowWidth="24165" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humanlike" sheetId="1" r:id="rId1"/>
     <sheet name="Animal" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Cybertech" sheetId="4" r:id="rId4"/>
-    <sheet name="CyberFauna" sheetId="6" r:id="rId5"/>
+    <sheet name="Cybertech" sheetId="4" r:id="rId3"/>
+    <sheet name="CyberFauna" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="XItems">Лист2!$A$1:$A$189</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="811">
   <si>
     <t>ThingDef</t>
   </si>
@@ -2459,18 +2459,32 @@
   </si>
   <si>
     <t>cfAniStomach</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>BionicTongue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2635,12 +2649,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2648,70 +2662,113 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,51 +2780,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3069,11 +3098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,10 +3124,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3287,4481 +3316,4518 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>470</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
+      <c r="A30" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>281</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>411</v>
+      <c r="A32" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>498</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>483</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>19</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>604</v>
+      <c r="A52" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>290</v>
+      <c r="A54" s="17" t="s">
+        <v>604</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>604</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>502</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>280</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>503</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>217</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>495</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>508</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>416</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>417</v>
+        <v>239</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>417</v>
+        <v>239</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>218</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>222</v>
+        <v>417</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="26"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="40"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="26"/>
-    </row>
-    <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>468</v>
-      </c>
+      <c r="B91" s="40"/>
     </row>
     <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>16</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>246</v>
+        <v>405</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>246</v>
+        <v>405</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>18</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>113</v>
+        <v>244</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>448</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>115</v>
+        <v>409</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>449</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B109" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C110" s="43" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="9" t="s">
+    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42"/>
+      <c r="B111" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="25"/>
-    </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="C111" s="43"/>
+    </row>
+    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C112" s="43" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
-      <c r="B111" s="9" t="s">
+    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42"/>
+      <c r="B113" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="25"/>
-    </row>
-    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
+      <c r="C113" s="43"/>
+    </row>
+    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C114" s="43" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="9" t="s">
+    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42"/>
+      <c r="B115" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="25"/>
-    </row>
-    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
+      <c r="C115" s="43"/>
+    </row>
+    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B116" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C116" s="43" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="9" t="s">
+    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="42"/>
+      <c r="B117" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="25"/>
-    </row>
-    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
+      <c r="C117" s="43"/>
+    </row>
+    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C118" s="43" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="9" t="s">
+    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42"/>
+      <c r="B119" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="25"/>
-    </row>
-    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
+      <c r="C119" s="43"/>
+    </row>
+    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C120" s="43" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="9" t="s">
+    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="42"/>
+      <c r="B121" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C119" s="25"/>
-    </row>
-    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
+      <c r="C121" s="43"/>
+    </row>
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B122" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C122" s="43" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="9" t="s">
+    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="42"/>
+      <c r="B123" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="25"/>
-    </row>
-    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>465</v>
-      </c>
+      <c r="C123" s="43"/>
     </row>
     <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>221</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>484</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>18</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>485</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B159" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-    </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="26"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+      <c r="B162" s="40"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="26"/>
-    </row>
-    <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+      <c r="B165" s="40"/>
+    </row>
+    <row r="166" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B166" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-    </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="26" t="s">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="26"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+      <c r="B169" s="40"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="26" t="s">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="26"/>
-    </row>
-    <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
+      <c r="B172" s="40"/>
+    </row>
+    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B173" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C173" s="10" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B176" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>220</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>502</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>503</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>18</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>508</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>278</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>505</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B200" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C200" s="10" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D201" s="13" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>400</v>
+        <v>434</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>422</v>
+        <v>453</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>575</v>
+        <v>217</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B208" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C208" s="10" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="211" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="213" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>223</v>
+        <v>532</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>517</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>536</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
     </row>
     <row r="231" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>579</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B235" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C235" s="10" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>33</v>
+      <c r="A237" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>33</v>
+        <v>423</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>33</v>
+        <v>423</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B240" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="12" t="s">
+    <row r="241" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B241" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C241" s="10" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B241" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
     </row>
     <row r="243" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
     </row>
     <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>267</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>532</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>268</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B264" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C262" s="10" t="s">
+      <c r="C264" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="12" t="s">
+    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B265" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C263" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
+    <row r="266" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B266" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="C266" s="10" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>535</v>
+        <v>34</v>
       </c>
     </row>
     <row r="269" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="12" t="s">
-        <v>431</v>
+      <c r="A269" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>431</v>
+        <v>247</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="9" t="s">
+    <row r="273" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B273" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C271" s="10" t="s">
+      <c r="C273" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
+    <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="C274" s="10" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
+    <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B275" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="C275" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="23" t="s">
+    <row r="276" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B276" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C274" s="25" t="s">
+      <c r="C276" s="43" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="24"/>
-      <c r="B275" s="9" t="s">
+    <row r="277" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="42"/>
+      <c r="B277" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C275" s="25"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="26" t="s">
+      <c r="C277" s="43"/>
+    </row>
+    <row r="278" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="B278" s="55" t="s">
+        <v>810</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="52"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="53"/>
+    </row>
+    <row r="280" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="52"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="53"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B278" s="26"/>
-    </row>
-    <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B282" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>276</v>
-      </c>
+      <c r="B283" s="40"/>
     </row>
     <row r="284" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
     </row>
     <row r="285" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="287" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>266</v>
+      <c r="A287" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>598</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>483</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B288" s="17" t="s">
-        <v>599</v>
+      <c r="A288" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>535</v>
+        <v>223</v>
       </c>
     </row>
     <row r="291" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>577</v>
+        <v>483</v>
       </c>
     </row>
     <row r="293" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>577</v>
+        <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>577</v>
+        <v>247</v>
       </c>
     </row>
     <row r="295" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="B295" s="17" t="s">
-        <v>601</v>
+      <c r="A295" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>267</v>
+        <v>577</v>
       </c>
     </row>
     <row r="298" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B298" s="11" t="s">
-        <v>81</v>
+      <c r="A298" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>602</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>218</v>
+        <v>577</v>
       </c>
     </row>
     <row r="299" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>581</v>
+      <c r="A299" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>447</v>
+        <v>577</v>
       </c>
     </row>
     <row r="300" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>594</v>
+      <c r="A300" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>601</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="301" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>592</v>
+      <c r="A301" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>497</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
     </row>
     <row r="305" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B305" s="11" t="s">
-        <v>88</v>
+      <c r="A305" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>594</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>16</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>86</v>
+      <c r="A306" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>592</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>223</v>
+        <v>497</v>
       </c>
     </row>
     <row r="307" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
     </row>
     <row r="308" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="309" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>91</v>
+      <c r="A309" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>593</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
     </row>
     <row r="310" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>483</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>572</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B320" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C315" s="10" t="s">
+      <c r="C320" s="10" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="B316" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B317" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B318" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="B319" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="C319" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B320" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="321" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="322" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
     </row>
     <row r="323" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="B330" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C330" s="10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="17" t="s">
+    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B331" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C331" s="10" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C327" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="333" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>554</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="335" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B338" s="26"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>33</v>
+        <v>556</v>
       </c>
     </row>
     <row r="340" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C341" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C342" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C343" s="10" t="s">
-        <v>494</v>
-      </c>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="40"/>
     </row>
     <row r="344" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>535</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="347" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>220</v>
+        <v>510</v>
       </c>
     </row>
     <row r="348" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="349" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>280</v>
+        <v>535</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="351" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="352" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="353" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="355" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
     </row>
     <row r="356" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
     </row>
     <row r="357" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>17</v>
+        <v>503</v>
       </c>
     </row>
     <row r="359" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>485</v>
+        <v>223</v>
       </c>
     </row>
     <row r="360" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>495</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>508</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>577</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>278</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
     </row>
     <row r="366" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="367" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>219</v>
+        <v>508</v>
       </c>
     </row>
     <row r="368" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="369" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="370" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="372" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>527</v>
+        <v>219</v>
       </c>
     </row>
     <row r="373" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>526</v>
+        <v>277</v>
       </c>
     </row>
     <row r="375" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>222</v>
+        <v>522</v>
       </c>
     </row>
     <row r="376" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>16</v>
+        <v>533</v>
       </c>
     </row>
     <row r="377" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
     </row>
     <row r="378" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>223</v>
+        <v>530</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>18</v>
+        <v>526</v>
       </c>
     </row>
     <row r="380" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>247</v>
+        <v>570</v>
       </c>
     </row>
     <row r="383" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="B383" s="15" t="s">
-        <v>595</v>
+      <c r="A383" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>518</v>
+        <v>223</v>
       </c>
     </row>
     <row r="384" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="B384" s="15" t="s">
-        <v>596</v>
+      <c r="A384" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>529</v>
+        <v>247</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B388" s="11" t="s">
-        <v>373</v>
+      <c r="A388" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B388" s="15" t="s">
+        <v>595</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="389" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>364</v>
+      <c r="A389" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B389" s="15" t="s">
+        <v>596</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="391" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>368</v>
+        <v>58</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>368</v>
+        <v>58</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>533</v>
+        <v>219</v>
       </c>
     </row>
     <row r="392" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="393" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>267</v>
+        <v>516</v>
       </c>
     </row>
     <row r="394" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="395" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="396" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="397" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="398" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="399" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="400" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C400" s="10" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="401" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="402" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="403" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>548</v>
+        <v>268</v>
       </c>
     </row>
     <row r="404" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="405" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="406" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="407" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="408" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="409" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="27" t="s">
-        <v>268</v>
+      <c r="A410" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C410" s="30" t="s">
-        <v>268</v>
+        <v>378</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="28"/>
-      <c r="B411" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="C411" s="31"/>
+      <c r="A411" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="29"/>
-      <c r="B412" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="C412" s="32"/>
+      <c r="A412" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="413" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C413" s="9" t="s">
-        <v>439</v>
+        <v>381</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="414" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C414" s="9" t="s">
-        <v>437</v>
+        <v>383</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="415" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="9" t="s">
-        <v>438</v>
+      <c r="A415" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C415" s="9" t="s">
-        <v>438</v>
+        <v>268</v>
+      </c>
+      <c r="C415" s="47" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="416" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B416" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>436</v>
-      </c>
+      <c r="A416" s="45"/>
+      <c r="B416" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C416" s="48"/>
     </row>
     <row r="417" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B417" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C417" s="9" t="s">
-        <v>435</v>
-      </c>
+      <c r="A417" s="46"/>
+      <c r="B417" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="C417" s="49"/>
     </row>
     <row r="418" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B423" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C418" s="10" t="s">
+      <c r="C423" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="17" t="s">
+    <row r="424" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="B419" s="17" t="s">
+      <c r="B424" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="C419" s="10" t="s">
+      <c r="C424" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="17" t="s">
+    <row r="425" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="B420" s="17" t="s">
+      <c r="B425" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="C420" s="10" t="s">
+      <c r="C425" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="17" t="s">
+    <row r="426" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="B421" s="17" t="s">
+      <c r="B426" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="C421" s="10" t="s">
+      <c r="C426" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="17" t="s">
+    <row r="427" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="B422" s="17" t="s">
+      <c r="B427" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="C422" s="10" t="s">
+      <c r="C427" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="17" t="s">
+    <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="B423" s="17" t="s">
+      <c r="B428" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="C423" s="10" t="s">
+      <c r="C428" s="10" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="26" t="s">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B427" s="26"/>
-    </row>
-    <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B428" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C428" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B429" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C429" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B430" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C430" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B431" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C431" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B432" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C432" s="10" t="s">
-        <v>577</v>
-      </c>
+      <c r="B432" s="40"/>
     </row>
     <row r="433" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
-        <v>391</v>
+        <v>111</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>391</v>
+        <v>111</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>577</v>
+        <v>218</v>
       </c>
     </row>
     <row r="435" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="B435" s="11" t="s">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="436" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>247</v>
+        <v>577</v>
       </c>
     </row>
     <row r="437" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
     </row>
     <row r="438" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
     </row>
     <row r="439" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="440" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>552</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>394</v>
+        <v>257</v>
       </c>
       <c r="B441" s="11" t="s">
-        <v>394</v>
+        <v>257</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>553</v>
+        <v>247</v>
       </c>
     </row>
     <row r="442" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="B442" s="11" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
     </row>
     <row r="443" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B443" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C444" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B446" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B447" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B448" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B449" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C444" s="10" t="s">
+      <c r="C449" s="10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="26" t="s">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B447" s="26"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="8"/>
-      <c r="B449" s="8"/>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="26" t="s">
+      <c r="B452" s="40"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="8"/>
+      <c r="B454" s="8"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B450" s="26"/>
+      <c r="B455" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D83">
-    <sortCondition ref="A83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:D85">
+    <sortCondition ref="A85"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A427:B427"/>
-    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C274:C275"/>
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C276:C277"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A410:A412"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="A415:A417"/>
+    <mergeCell ref="C415:C417"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:B91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7796,16 +7862,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -7816,10 +7882,10 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -7899,10 +7965,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="33" t="s">
         <v>772</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -7911,10 +7977,10 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="33" t="s">
         <v>773</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -7923,10 +7989,10 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="33" t="s">
         <v>774</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -7935,10 +8001,10 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="24" t="s">
         <v>751</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="33" t="s">
         <v>775</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -7957,10 +8023,10 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7971,10 +8037,10 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="40"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7987,10 +8053,10 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="40"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -8001,10 +8067,10 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="40"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -8017,10 +8083,10 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="40"/>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
@@ -8155,10 +8221,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="33" t="s">
         <v>776</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -8167,10 +8233,10 @@
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="33" t="s">
         <v>777</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -8179,10 +8245,10 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="33" t="s">
         <v>778</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -8191,10 +8257,10 @@
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="33" t="s">
         <v>779</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -8203,10 +8269,10 @@
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="33" t="s">
         <v>780</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -8214,25 +8280,25 @@
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-    </row>
-    <row r="53" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-    </row>
-    <row r="54" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+    <row r="52" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="47"/>
+      <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -8244,7 +8310,7 @@
       <c r="C55" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="D55" s="44"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -8290,21 +8356,21 @@
         <v>808</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="46"/>
-    </row>
-    <row r="61" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="46"/>
-    </row>
-    <row r="62" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+    <row r="60" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="37"/>
+    </row>
+    <row r="61" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="37"/>
+    </row>
+    <row r="62" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8362,28 +8428,28 @@
         <v>803</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="46"/>
-    </row>
-    <row r="69" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="46"/>
-    </row>
-    <row r="70" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+    <row r="68" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="37"/>
+    </row>
+    <row r="69" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="37"/>
+    </row>
+    <row r="70" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="26"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="33" t="s">
         <v>791</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -8391,10 +8457,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="33" t="s">
         <v>792</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -8402,10 +8468,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="33" t="s">
         <v>770</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="33" t="s">
         <v>793</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -8413,10 +8479,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="33" t="s">
         <v>794</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -8424,29 +8490,29 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="46"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="37"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="37"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="46"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="37"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="51"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -8457,22 +8523,16 @@
       <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:C46">
     <sortCondition ref="A46"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A31:B31"/>
@@ -8480,6 +8540,12 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8487,1044 +8553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
-  <dimension ref="A1:A203"/>
-  <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>795</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CA5C9-9459-4AA8-8EF9-86DF842CA153}">
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -9548,16 +8581,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -9568,10 +8601,10 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -9586,10 +8619,10 @@
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="40"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -9602,10 +8635,10 @@
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -9616,10 +8649,10 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -9632,10 +8665,10 @@
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -9646,10 +8679,10 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -9662,10 +8695,10 @@
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -9680,10 +8713,10 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="40"/>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -10081,10 +9114,10 @@
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="40"/>
     </row>
     <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -10095,10 +9128,10 @@
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="40"/>
     </row>
     <row r="72" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -10109,10 +9142,10 @@
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="40"/>
     </row>
     <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -10123,16 +9156,22 @@
       <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="26"/>
+      <c r="B77" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C64">
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A21:B21"/>
@@ -10141,19 +9180,13 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FA1C58-8C4D-4B21-AD5C-08A36B6CC2AD}">
   <dimension ref="A1:E72"/>
   <sheetViews>
@@ -10165,7 +9198,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="29" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="5" customWidth="1"/>
   </cols>
@@ -10174,7 +9207,7 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -10182,36 +9215,36 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="35"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="31" t="s">
         <v>772</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -10222,10 +9255,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="31" t="s">
         <v>773</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -10236,10 +9269,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="31" t="s">
         <v>774</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -10253,7 +9286,7 @@
       <c r="A12" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="31" t="s">
         <v>775</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -10265,107 +9298,107 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="36"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="36"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="40"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="37"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="37"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="35"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="40"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="37"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="37"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="40"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="32" t="s">
         <v>753</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="31" t="s">
         <v>776</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -10373,10 +9406,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="32" t="s">
         <v>754</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="31" t="s">
         <v>777</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -10384,10 +9417,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="31" t="s">
         <v>778</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -10395,10 +9428,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="32" t="s">
         <v>756</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="31" t="s">
         <v>779</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -10406,10 +9439,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="31" t="s">
         <v>780</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -10418,29 +9451,29 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="35"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="35"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="35"/>
+      <c r="B40" s="26"/>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="26"/>
+      <c r="B41" s="40"/>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="29" t="s">
         <v>781</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -10451,7 +9484,7 @@
       <c r="A43" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="29" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -10462,7 +9495,7 @@
       <c r="A44" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="29" t="s">
         <v>783</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -10473,7 +9506,7 @@
       <c r="A45" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="29" t="s">
         <v>784</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -10484,7 +9517,7 @@
       <c r="A46" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="29" t="s">
         <v>785</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -10493,21 +9526,21 @@
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="35"/>
+      <c r="B50" s="26"/>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="26"/>
+      <c r="B51" s="40"/>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="29" t="s">
         <v>786</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -10518,7 +9551,7 @@
       <c r="A53" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="29" t="s">
         <v>787</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -10529,7 +9562,7 @@
       <c r="A54" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="29" t="s">
         <v>788</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -10540,7 +9573,7 @@
       <c r="A55" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="29" t="s">
         <v>789</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -10551,7 +9584,7 @@
       <c r="A56" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="29" t="s">
         <v>790</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -10560,26 +9593,26 @@
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="35"/>
+      <c r="B59" s="26"/>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="35"/>
+      <c r="B60" s="26"/>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="26"/>
+      <c r="B61" s="40"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="31" t="s">
         <v>791</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -10588,10 +9621,10 @@
       <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="31" t="s">
         <v>792</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -10600,10 +9633,10 @@
       <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="31" t="s">
         <v>793</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -10612,10 +9645,10 @@
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="31" t="s">
         <v>794</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -10625,51 +9658,45 @@
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="35"/>
+      <c r="B66" s="26"/>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="35"/>
+      <c r="B67" s="26"/>
       <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="35"/>
+      <c r="B68" s="26"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="26"/>
+      <c r="B69" s="40"/>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="37"/>
+      <c r="B70" s="28"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="37"/>
+      <c r="B71" s="28"/>
       <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="26"/>
+      <c r="B72" s="40"/>
       <c r="E72" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A26:B26"/>
@@ -10678,8 +9705,1048 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D29EAF-26BA-4F79-A16F-FC9F831FBAE1}">
+  <dimension ref="A1:A203"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ListOfOrgans.xlsx
+++ b/ListOfOrgans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\[XPatch] HD Icons Organs NPBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE51E89-1B87-45EB-9843-B2541DF90AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B09259-9429-405F-8E01-0BD600489159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="4290" windowWidth="24165" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3885" windowWidth="22845" windowHeight="11040" tabRatio="464" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humanlike" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="876">
   <si>
     <t>ThingDef</t>
   </si>
@@ -2465,18 +2465,221 @@
   </si>
   <si>
     <t>BionicTongue</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+  </si>
+  <si>
+    <t>BionicBladder</t>
+  </si>
+  <si>
+    <t>HygieneEnhancer</t>
+  </si>
+  <si>
+    <t>CONN_hediff_BlackPearl</t>
+  </si>
+  <si>
+    <t>CONN_BlackPearl</t>
+  </si>
+  <si>
+    <t>CONN_hediff_HoverFeet</t>
+  </si>
+  <si>
+    <t>CONN_HoverFeet</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Greenthumb</t>
+  </si>
+  <si>
+    <t>CONN_Greenthumb</t>
+  </si>
+  <si>
+    <t>CONN_hediff_CompressionJaw</t>
+  </si>
+  <si>
+    <t>CONN_CompressionJaw</t>
+  </si>
+  <si>
+    <t>CONN_hediff_CompressionStomach</t>
+  </si>
+  <si>
+    <t>CONN_CompressionStomach</t>
+  </si>
+  <si>
+    <t>CONN_hediff_FlashLight</t>
+  </si>
+  <si>
+    <t>CONN_FlashLight</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Musclewire</t>
+  </si>
+  <si>
+    <t>CONN_Musclewire</t>
+  </si>
+  <si>
+    <t>CONN_hediff_EnergeticLung</t>
+  </si>
+  <si>
+    <t>CONN_EnergeticLung</t>
+  </si>
+  <si>
+    <t>CONN_hediff_EnergeticKidney</t>
+  </si>
+  <si>
+    <t>CONN_EnergeticKidney</t>
+  </si>
+  <si>
+    <t>CONN_hediff_EnergyCore</t>
+  </si>
+  <si>
+    <t>CONN_EnergyCore</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Autonomicviruskiller</t>
+  </si>
+  <si>
+    <t>CONN_Autonomicviruskiller</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Aurum</t>
+  </si>
+  <si>
+    <t>CONN_Aurum</t>
+  </si>
+  <si>
+    <t>CONN_hediff_BerserkerChip</t>
+  </si>
+  <si>
+    <t>CONN_BerserkerChip</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Mindtwist</t>
+  </si>
+  <si>
+    <t>CONN_BodyPartsArtificialtwist</t>
+  </si>
+  <si>
+    <t>CONN_hediff_MuseChip</t>
+  </si>
+  <si>
+    <t>CONN_MuseChip</t>
+  </si>
+  <si>
+    <t>CONN_hediff_NeuroEnhancer</t>
+  </si>
+  <si>
+    <t>CONN_NeuroEnhancer</t>
+  </si>
+  <si>
+    <t>CONN_hediff_CombatAI</t>
+  </si>
+  <si>
+    <t>CONN_CombatAI</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Zoom</t>
+  </si>
+  <si>
+    <t>CONN_Zoom</t>
+  </si>
+  <si>
+    <t>CONN_hediff_EnergyFist</t>
+  </si>
+  <si>
+    <t>CONN_EnergyFist</t>
+  </si>
+  <si>
+    <t>CONN_hediff_ElasticAchilles</t>
+  </si>
+  <si>
+    <t>CONN_ElasticAchilles</t>
+  </si>
+  <si>
+    <t>CONN_hediff_CyclopsVisor</t>
+  </si>
+  <si>
+    <t>CONN_CyclopsVisor</t>
+  </si>
+  <si>
+    <t>CONN_hediff_LaserDetection</t>
+  </si>
+  <si>
+    <t>CONN_LaserDetection</t>
+  </si>
+  <si>
+    <t>CONN_hediff_SensoricEarside</t>
+  </si>
+  <si>
+    <t>CONN_SensoricEarside</t>
+  </si>
+  <si>
+    <t>CONN_hediff_IndependentEye</t>
+  </si>
+  <si>
+    <t>CONN_IndependentEye</t>
+  </si>
+  <si>
+    <t>CONN_hediff_EnergyLink</t>
+  </si>
+  <si>
+    <t>CONN_EnergyLink</t>
+  </si>
+  <si>
+    <t>CONN_hediff_OuterBlade</t>
+  </si>
+  <si>
+    <t>CONN_OuterBlade</t>
+  </si>
+  <si>
+    <t>CONN_hediff_PowerArms</t>
+  </si>
+  <si>
+    <t>CONN_PowerArms</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Shadowrunner</t>
+  </si>
+  <si>
+    <t>CONN_Shadowrunner</t>
+  </si>
+  <si>
+    <t>CONN_hediff_ExoskeletonArmor</t>
+  </si>
+  <si>
+    <t>CONN_Exoskeleton</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Dermalplating</t>
+  </si>
+  <si>
+    <t>CONN_Dermalplating</t>
+  </si>
+  <si>
+    <t>CONN_hediff_Lionheart</t>
+  </si>
+  <si>
+    <t>CONN_Lionheart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2649,12 +2852,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2662,113 +2865,94 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2780,24 +2964,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3098,11 +3275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,10 +3301,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3327,679 +3504,683 @@
         <v>809</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="40"/>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>494</v>
-      </c>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>221</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>497</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>414</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>499</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>483</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>18</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>413</v>
+        <v>230</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>413</v>
+        <v>230</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>501</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>226</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>415</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>410</v>
+        <v>232</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>410</v>
+        <v>232</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>474</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>494</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>495</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>416</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>218</v>
+        <v>417</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="40"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="31"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -4007,749 +4188,749 @@
       <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="40"/>
-    </row>
-    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>509</v>
-      </c>
+      <c r="B92" s="31"/>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>407</v>
+        <v>243</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>407</v>
+        <v>243</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>246</v>
+        <v>408</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>246</v>
+        <v>408</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>409</v>
+        <v>244</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>409</v>
+        <v>244</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>113</v>
+        <v>409</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>448</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
+    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B111" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C111" s="34" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="9" t="s">
+    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="43"/>
-    </row>
-    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
+      <c r="C112" s="34"/>
+    </row>
+    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C113" s="34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="9" t="s">
+    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C113" s="43"/>
-    </row>
-    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
+      <c r="C114" s="34"/>
+    </row>
+    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B115" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C115" s="34" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
-      <c r="B115" s="9" t="s">
+    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="43"/>
-    </row>
-    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
+      <c r="C116" s="34"/>
+    </row>
+    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="43" t="s">
+      <c r="C117" s="34" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
-      <c r="B117" s="9" t="s">
+    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C117" s="43"/>
-    </row>
-    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41" t="s">
+      <c r="C118" s="34"/>
+    </row>
+    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B119" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C119" s="34" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="9" t="s">
+    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
+      <c r="B120" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="43"/>
-    </row>
-    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41" t="s">
+      <c r="C120" s="34"/>
+    </row>
+    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C121" s="34" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
-      <c r="B121" s="9" t="s">
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="43"/>
-    </row>
-    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
+      <c r="C122" s="34"/>
+    </row>
+    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C123" s="34" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="9" t="s">
+    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C123" s="43"/>
-    </row>
-    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>464</v>
-      </c>
+      <c r="C124" s="34"/>
     </row>
     <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>221</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>482</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>222</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>483</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>18</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>485</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>441</v>
+        <v>216</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B160" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C160" s="10" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="40" t="s">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="40"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+      <c r="B163" s="31"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
@@ -4757,40 +4938,40 @@
       <c r="C164" s="8"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="40" t="s">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B165" s="40"/>
-    </row>
-    <row r="166" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+      <c r="B166" s="31"/>
+    </row>
+    <row r="167" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C167" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="40" t="s">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B169" s="40"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+      <c r="B170" s="31"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
@@ -4798,2856 +4979,2856 @@
       <c r="C171" s="8"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="40"/>
-    </row>
-    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+      <c r="B173" s="31"/>
+    </row>
+    <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B174" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C174" s="10" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B177" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C177" s="10" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>494</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>222</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>502</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>495</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>278</v>
+        <v>577</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>483</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>506</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B201" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C201" s="10" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D203" s="13" t="s">
-        <v>402</v>
+        <v>434</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>422</v>
+        <v>217</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>32</v>
+        <v>422</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>32</v>
+        <v>422</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>575</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B209" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C209" s="10" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="213" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>223</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>517</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="232" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>570</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B236" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="C236" s="10" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="238" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B239" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C239" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
+    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B240" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="241" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B242" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C242" s="10" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="243" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
     </row>
     <row r="244" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="247" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>267</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>530</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="262" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>268</v>
+        <v>529</v>
       </c>
     </row>
     <row r="264" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B265" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="266" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B267" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C266" s="10" t="s">
+      <c r="C267" s="10" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
     </row>
     <row r="269" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>247</v>
+        <v>34</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B271" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C271" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="12" t="s">
+    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C271" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="273" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="C274" s="10" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="275" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B276" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C275" s="10" t="s">
+      <c r="C276" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="41" t="s">
+    <row r="277" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B277" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C276" s="43" t="s">
+      <c r="C277" s="34" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="42"/>
-      <c r="B277" s="9" t="s">
+    <row r="278" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="33"/>
+      <c r="B278" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C277" s="43"/>
-    </row>
-    <row r="278" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="54" t="s">
+      <c r="C278" s="34"/>
+    </row>
+    <row r="279" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="27" t="s">
         <v>810</v>
       </c>
-      <c r="B278" s="55" t="s">
+      <c r="B279" s="28" t="s">
         <v>810</v>
       </c>
-      <c r="C278" s="23" t="s">
+      <c r="C279" s="20" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="52"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="53"/>
-    </row>
-    <row r="280" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="52"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="53"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+    <row r="280" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C281" s="20" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="B282" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C282" s="20" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="40" t="s">
+      <c r="A283" s="7"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="26"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B283" s="40"/>
-    </row>
-    <row r="284" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
+      <c r="B286" s="31"/>
+    </row>
+    <row r="287" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B287" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C284" s="10" t="s">
+      <c r="C287" s="10" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="289" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="290" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>264</v>
+      <c r="A290" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>598</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>483</v>
+        <v>279</v>
       </c>
     </row>
     <row r="293" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B293" s="17" t="s">
-        <v>599</v>
+      <c r="A293" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>334</v>
+      <c r="A296" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>599</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>577</v>
+        <v>247</v>
       </c>
     </row>
     <row r="298" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="B298" s="17" t="s">
-        <v>602</v>
+      <c r="A298" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
     </row>
     <row r="299" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>577</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="B300" s="17" t="s">
-        <v>601</v>
+      <c r="A300" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="C300" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="301" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>336</v>
+      <c r="A301" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>602</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B305" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C302" s="10" t="s">
+      <c r="C305" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="9" t="s">
+    <row r="306" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B303" s="11" t="s">
+      <c r="B306" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C303" s="10" t="s">
+      <c r="C306" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="15" t="s">
+    <row r="307" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B304" s="15" t="s">
+      <c r="B307" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="C304" s="10" t="s">
+      <c r="C307" s="10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="15" t="s">
+    <row r="308" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B308" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="C305" s="10" t="s">
+      <c r="C308" s="10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="15" t="s">
+    <row r="309" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B309" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C306" s="10" t="s">
+      <c r="C309" s="10" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B307" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C308" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="B309" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="310" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="311" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>90</v>
+      <c r="A312" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>593</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>18</v>
+        <v>412</v>
       </c>
     </row>
     <row r="313" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="317" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>572</v>
+        <v>247</v>
       </c>
     </row>
     <row r="320" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B323" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C320" s="10" t="s">
+      <c r="C323" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="15" t="s">
+    <row r="324" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="B324" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C321" s="10" t="s">
+      <c r="C324" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="15" t="s">
+    <row r="325" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B322" s="15" t="s">
+      <c r="B325" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="C322" s="10" t="s">
+      <c r="C325" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="15" t="s">
+    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B323" s="15" t="s">
+      <c r="B326" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="C326" s="10" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="15" t="s">
+    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B324" s="15" t="s">
+      <c r="B327" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C327" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="15" t="s">
+    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="B328" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C328" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="15" t="s">
+    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B329" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C329" s="10" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="15" t="s">
+    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B330" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="C330" s="10" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="15" t="s">
+    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B331" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="C331" s="10" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="15" t="s">
+    <row r="332" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="B332" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="C332" s="10" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="15" t="s">
+    <row r="333" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B333" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="C333" s="10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="17" t="s">
+    <row r="334" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="B331" s="17" t="s">
+      <c r="B334" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C334" s="10" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B332" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B333" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C333" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="335" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="336" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>553</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="339" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B343" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C340" s="10" t="s">
+      <c r="C343" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="40" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B343" s="40"/>
-    </row>
-    <row r="344" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B344" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C344" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B345" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C345" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="B346" s="31"/>
     </row>
     <row r="347" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>510</v>
+        <v>33</v>
       </c>
     </row>
     <row r="348" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>494</v>
+        <v>34</v>
       </c>
     </row>
     <row r="349" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>535</v>
+        <v>218</v>
       </c>
     </row>
     <row r="350" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>281</v>
+        <v>510</v>
       </c>
     </row>
     <row r="351" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>222</v>
+        <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>220</v>
+        <v>535</v>
       </c>
     </row>
     <row r="353" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>502</v>
+        <v>281</v>
       </c>
     </row>
     <row r="354" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
     </row>
     <row r="355" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="356" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>279</v>
+        <v>502</v>
       </c>
     </row>
     <row r="357" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="358" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>503</v>
+        <v>276</v>
       </c>
     </row>
     <row r="359" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
     </row>
     <row r="360" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>217</v>
+        <v>503</v>
       </c>
     </row>
     <row r="362" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="363" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>485</v>
+        <v>217</v>
       </c>
     </row>
     <row r="365" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>559</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>495</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="368" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="369" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>278</v>
+        <v>495</v>
       </c>
     </row>
     <row r="370" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="371" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
     </row>
     <row r="372" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
     <row r="373" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="374" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>277</v>
+        <v>505</v>
       </c>
     </row>
     <row r="375" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>522</v>
+        <v>219</v>
       </c>
     </row>
     <row r="376" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
     </row>
     <row r="377" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>527</v>
+        <v>277</v>
       </c>
     </row>
     <row r="378" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="380" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>222</v>
+        <v>527</v>
       </c>
     </row>
     <row r="381" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>16</v>
+        <v>530</v>
       </c>
     </row>
     <row r="382" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
     </row>
     <row r="383" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="384" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="385" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
     </row>
     <row r="386" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
     </row>
     <row r="387" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="B388" s="15" t="s">
-        <v>595</v>
+      <c r="A388" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
     </row>
     <row r="389" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="B389" s="15" t="s">
-        <v>596</v>
+      <c r="A389" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>485</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
     </row>
     <row r="391" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B391" s="11" t="s">
-        <v>58</v>
+      <c r="A391" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>219</v>
+        <v>518</v>
       </c>
     </row>
     <row r="392" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B392" s="11" t="s">
-        <v>272</v>
+      <c r="A392" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
     </row>
     <row r="393" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>373</v>
+        <v>53</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>373</v>
+        <v>53</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
     </row>
     <row r="394" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>522</v>
+        <v>219</v>
       </c>
     </row>
     <row r="395" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="396" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="397" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="398" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
     </row>
     <row r="399" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="400" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C400" s="10" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="401" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>524</v>
+        <v>267</v>
       </c>
     </row>
     <row r="402" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="403" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>268</v>
+        <v>532</v>
       </c>
     </row>
     <row r="404" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="405" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="406" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>546</v>
+        <v>268</v>
       </c>
     </row>
     <row r="407" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="408" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="409" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="410" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B411" s="11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="412" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="413" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="414" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B414" s="11" t="s">
+      <c r="B417" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C417" s="10" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="44" t="s">
+    <row r="418" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="B415" s="11" t="s">
+      <c r="B418" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C415" s="47" t="s">
+      <c r="C418" s="38" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="45"/>
-      <c r="B416" s="17" t="s">
+    <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="36"/>
+      <c r="B419" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="C416" s="48"/>
-    </row>
-    <row r="417" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="46"/>
-      <c r="B417" s="17" t="s">
+      <c r="C419" s="39"/>
+    </row>
+    <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="37"/>
+      <c r="B420" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="C417" s="49"/>
-    </row>
-    <row r="418" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B418" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C418" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B419" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C419" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B420" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C420" s="9" t="s">
-        <v>438</v>
-      </c>
+      <c r="C420" s="40"/>
     </row>
     <row r="421" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="422" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="423" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B423" s="11" t="s">
+      <c r="B426" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C423" s="10" t="s">
+      <c r="C426" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="424" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="17" t="s">
+    <row r="427" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="B424" s="17" t="s">
+      <c r="B427" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="C424" s="10" t="s">
+      <c r="C427" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="17" t="s">
+    <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="B425" s="17" t="s">
+      <c r="B428" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="C425" s="10" t="s">
+      <c r="C428" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="17" t="s">
+    <row r="429" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B429" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="C426" s="10" t="s">
+      <c r="C429" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="17" t="s">
+    <row r="430" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B427" s="17" t="s">
+      <c r="B430" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="C427" s="10" t="s">
+      <c r="C430" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="17" t="s">
+    <row r="431" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B428" s="17" t="s">
+      <c r="B431" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="C428" s="10" t="s">
+      <c r="C431" s="10" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="40" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B432" s="40"/>
-    </row>
-    <row r="433" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B433" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B434" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C434" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B435" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C435" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="B435" s="31"/>
     </row>
     <row r="436" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>577</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>577</v>
+        <v>218</v>
       </c>
     </row>
     <row r="438" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="439" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C439" s="10" t="s">
         <v>577</v>
@@ -7655,179 +7836,212 @@
     </row>
     <row r="440" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
     </row>
     <row r="441" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="B441" s="11" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="B442" s="11" t="s">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
     </row>
     <row r="443" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B443" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="B444" s="11" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>544</v>
+        <v>247</v>
       </c>
     </row>
     <row r="445" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="B445" s="11" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="446" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B446" s="11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="447" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="448" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B448" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="449" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B449" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B450" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B451" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B449" s="11" t="s">
+      <c r="B452" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C449" s="10" t="s">
+      <c r="C452" s="10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="40" t="s">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B452" s="40"/>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="8"/>
-      <c r="B453" s="8"/>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="8"/>
-      <c r="B454" s="8"/>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="40" t="s">
+      <c r="B455" s="31"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="8"/>
+      <c r="B456" s="8"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B455" s="40"/>
+      <c r="B458" s="31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:D85">
-    <sortCondition ref="A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:D86">
+    <sortCondition ref="A86"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="A415:A417"/>
-    <mergeCell ref="C415:C417"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
     <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A432:B432"/>
-    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A418:A420"/>
+    <mergeCell ref="C418:C420"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A277:A278"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7851,27 +8065,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -7882,16 +8096,16 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>620</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -7899,10 +8113,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>619</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -7910,10 +8124,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>618</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7921,10 +8135,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>615</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -7932,10 +8146,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>617</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -7943,10 +8157,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>616</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -7954,10 +8168,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>621</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -7965,10 +8179,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>772</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -7977,10 +8191,10 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="24" t="s">
         <v>747</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="24" t="s">
         <v>773</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -7989,10 +8203,10 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="24" t="s">
         <v>774</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8001,10 +8215,10 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>775</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -8023,10 +8237,10 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -8037,10 +8251,10 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8053,10 +8267,10 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -8067,10 +8281,10 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -8083,27 +8297,27 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>629</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -8111,10 +8325,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>633</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -8122,10 +8336,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>632</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -8133,10 +8347,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>631</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -8144,10 +8358,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>630</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -8155,10 +8369,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>623</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -8166,10 +8380,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>624</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -8177,10 +8391,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>622</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -8188,10 +8402,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>626</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -8199,10 +8413,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>625</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -8210,10 +8424,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>627</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -8221,10 +8435,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="24" t="s">
         <v>776</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -8233,10 +8447,10 @@
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="24" t="s">
         <v>777</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -8245,10 +8459,10 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="24" t="s">
         <v>778</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -8257,10 +8471,10 @@
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="24" t="s">
         <v>779</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -8269,10 +8483,10 @@
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="24" t="s">
         <v>780</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -8280,25 +8494,19 @@
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-    </row>
-    <row r="53" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-    </row>
-    <row r="54" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -8310,7 +8518,6 @@
       <c r="C55" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -8356,22 +8563,11 @@
         <v>808</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -8428,28 +8624,17 @@
         <v>803</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="37"/>
-    </row>
-    <row r="69" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="31"/>
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="24" t="s">
         <v>791</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -8457,10 +8642,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="24" t="s">
         <v>792</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -8468,10 +8653,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="24" t="s">
         <v>793</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -8479,40 +8664,25 @@
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="24" t="s">
         <v>794</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="37"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="37"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="37"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="42"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -8523,10 +8693,10 @@
       <c r="B81" s="8"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="31"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:C46">
@@ -8554,11 +8724,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CA5C9-9459-4AA8-8EF9-86DF842CA153}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,31 +8736,32 @@
     <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="45" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -8601,28 +8772,28 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -8635,535 +8806,1279 @@
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="40"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="40"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>706</v>
+        <v>822</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>703</v>
+        <v>825</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>704</v>
+        <v>824</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>677</v>
+        <v>827</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>678</v>
+        <v>826</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>673</v>
+        <v>839</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>674</v>
+        <v>838</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>648</v>
+        <v>841</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>649</v>
+        <v>840</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>689</v>
+        <v>843</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>690</v>
+        <v>842</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>691</v>
+        <v>849</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>692</v>
+        <v>848</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>697</v>
+        <v>851</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>698</v>
+        <v>850</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>709</v>
+        <v>853</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>710</v>
+        <v>852</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+    </row>
+    <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+    </row>
+    <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="D68" s="44"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+    </row>
+    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+    </row>
+    <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+    </row>
+    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+    </row>
+    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+    </row>
+    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+    </row>
+    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+    </row>
+    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+    </row>
+    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+    </row>
+    <row r="79" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="D79" s="44"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+    </row>
+    <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+    </row>
+    <row r="81" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="82" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    </row>
+    <row r="83" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    </row>
+    <row r="84" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    </row>
+    <row r="85" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    </row>
+    <row r="86" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    </row>
+    <row r="87" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+    <row r="88" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
+    </row>
+    <row r="102" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+    </row>
+    <row r="103" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+    </row>
+    <row r="104" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+    </row>
+    <row r="105" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+    </row>
+    <row r="106" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+    </row>
+    <row r="108" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+    </row>
+    <row r="109" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="40"/>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+      <c r="B109" s="31"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+    </row>
+    <row r="111" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+    </row>
+    <row r="112" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+    </row>
+    <row r="113" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="40"/>
-    </row>
-    <row r="72" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="B113" s="31"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+    </row>
+    <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+    </row>
+    <row r="115" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="40"/>
-    </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="B116" s="31"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+    </row>
+    <row r="117" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+    </row>
+    <row r="118" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+    </row>
+    <row r="119" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B119" s="31"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C64">
-    <sortCondition ref="A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C87">
+    <sortCondition ref="A55"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="A18:B18"/>
@@ -9172,14 +10087,14 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A113:B113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9198,53 +10113,53 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>772</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -9255,10 +10170,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>773</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9269,10 +10184,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="22" t="s">
         <v>774</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -9283,10 +10198,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>775</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -9297,108 +10212,108 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>776</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -9406,10 +10321,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="22" t="s">
         <v>777</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -9417,10 +10332,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="22" t="s">
         <v>778</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -9428,10 +10343,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="22" t="s">
         <v>779</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -9439,10 +10354,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="22" t="s">
         <v>780</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -9451,29 +10366,29 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="26"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="2"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="E41" s="22"/>
+      <c r="B41" s="31"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -9484,7 +10399,7 @@
       <c r="A43" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="1" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -9495,7 +10410,7 @@
       <c r="A44" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="1" t="s">
         <v>783</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -9506,7 +10421,7 @@
       <c r="A45" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="1" t="s">
         <v>784</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -9517,7 +10432,7 @@
       <c r="A46" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -9526,21 +10441,21 @@
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="26"/>
-      <c r="E50" s="22"/>
+      <c r="B50" s="2"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="E51" s="22"/>
+      <c r="B51" s="31"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="1" t="s">
         <v>786</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -9551,7 +10466,7 @@
       <c r="A53" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="1" t="s">
         <v>787</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -9562,7 +10477,7 @@
       <c r="A54" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="1" t="s">
         <v>788</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -9573,7 +10488,7 @@
       <c r="A55" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="1" t="s">
         <v>789</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -9584,7 +10499,7 @@
       <c r="A56" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="1" t="s">
         <v>790</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -9593,107 +10508,107 @@
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="26"/>
-      <c r="E59" s="22"/>
+      <c r="B59" s="2"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="E60" s="22"/>
+      <c r="B60" s="2"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="E61" s="22"/>
+      <c r="B61" s="31"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="22" t="s">
         <v>791</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="22" t="s">
         <v>793</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="22" t="s">
         <v>794</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="26"/>
-      <c r="E66" s="22"/>
+      <c r="B66" s="2"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="E67" s="22"/>
+      <c r="B67" s="2"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="26"/>
-      <c r="E68" s="22"/>
+      <c r="B68" s="2"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="E69" s="22"/>
+      <c r="B69" s="31"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="28"/>
-      <c r="E70" s="22"/>
+      <c r="B70" s="8"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="28"/>
-      <c r="E71" s="22"/>
+      <c r="B71" s="8"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="E72" s="22"/>
+      <c r="B72" s="31"/>
+      <c r="E72" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
